--- a/gráficos.xlsx
+++ b/gráficos.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="14900" tabRatio="714"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="14800" tabRatio="714" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="19KBytes" sheetId="6" r:id="rId1"/>
-    <sheet name="20 MB" sheetId="1" r:id="rId2"/>
+    <sheet name="28203KBytes" sheetId="1" r:id="rId2"/>
     <sheet name="76 MB" sheetId="2" r:id="rId3"/>
     <sheet name="Otimização do Compilador" sheetId="7" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Threads</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Elementos</t>
   </si>
   <si>
-    <t>19,073 MBytes</t>
-  </si>
-  <si>
     <t>76,294 MBytes</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>Cache lvl1</t>
+  </si>
+  <si>
+    <t>3 610 000</t>
+  </si>
+  <si>
+    <t>28203,125 KBytes</t>
   </si>
 </sst>
 </file>
@@ -736,11 +739,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126718984"/>
-        <c:axId val="2125798360"/>
+        <c:axId val="2110577304"/>
+        <c:axId val="2110583480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126718984"/>
+        <c:axId val="2110577304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,7 +829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125798360"/>
+        <c:crossAx val="2110583480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -834,7 +837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125798360"/>
+        <c:axId val="2110583480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126718984"/>
+        <c:crossAx val="2110577304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1380,11 +1383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125885848"/>
-        <c:axId val="2125892120"/>
+        <c:axId val="2110670168"/>
+        <c:axId val="2110676344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125885848"/>
+        <c:axId val="2110670168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125892120"/>
+        <c:crossAx val="2110676344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1478,7 +1481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125892120"/>
+        <c:axId val="2110676344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +1575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125885848"/>
+        <c:crossAx val="2110670168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1940,10 +1943,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'20 MB'!$B$6:$B$14</c:f>
+              <c:f>'28203KBytes'!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1967,45 +1970,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20 MB'!$K$6:$K$14</c:f>
+              <c:f>'28203KBytes'!$K$6:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.834195</c:v>
+                  <c:v>1093.231567</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.437815</c:v>
+                  <c:v>592.26244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24805</c:v>
+                  <c:v>306.924377</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.222431</c:v>
+                  <c:v>171.126789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.248495</c:v>
+                  <c:v>100.149996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.258225</c:v>
+                  <c:v>115.254883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.313316</c:v>
+                  <c:v>92.431274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.324508</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.373691</c:v>
+                  <c:v>88.318236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,36 +2030,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'20 MB'!$M$6:$M$14</c:f>
+              <c:f>'28203KBytes'!$M$6:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.834195</c:v>
+                  <c:v>1093.231567</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4170975</c:v>
+                  <c:v>546.6157835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20854875</c:v>
+                  <c:v>273.30789175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.104274375</c:v>
+                  <c:v>136.653945875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0521371875</c:v>
+                  <c:v>68.3269729375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.034758125</c:v>
+                  <c:v>45.55131529166667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02606859375</c:v>
+                  <c:v>34.16348646875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.020854875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0173790625</c:v>
+                  <c:v>27.330789175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2079,11 +2073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125963608"/>
-        <c:axId val="2125970088"/>
+        <c:axId val="2110748088"/>
+        <c:axId val="2110754472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125963608"/>
+        <c:axId val="2110748088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,7 +2163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125970088"/>
+        <c:crossAx val="2110754472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2177,7 +2171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125970088"/>
+        <c:axId val="2110754472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125963608"/>
+        <c:crossAx val="2110748088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2647,10 +2641,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'20 MB'!$B$6:$B$14</c:f>
+              <c:f>'28203KBytes'!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2674,45 +2668,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'20 MB'!$N$6:$N$14</c:f>
+              <c:f>'28203KBytes'!$N$6:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.905359569681258</c:v>
+                  <c:v>1.845856656045925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.363011489619029</c:v>
+                  <c:v>3.561892273548543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.750354042377186</c:v>
+                  <c:v>6.388430317593349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.356989074226846</c:v>
+                  <c:v>10.91594219334767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.230496659889631</c:v>
+                  <c:v>9.485338395597521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.662471753756591</c:v>
+                  <c:v>11.82750728936182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.570645407817373</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.232312257988552</c:v>
+                  <c:v>12.37832203759142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2740,7 +2728,40 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'20 MB'!$B$6:$B$14</c:f>
+              <c:f>'28203KBytes'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'28203KBytes'!$O$6:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2758,39 +2779,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'20 MB'!$O$6:$O$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,11 +2795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126027240"/>
-        <c:axId val="2126033688"/>
+        <c:axId val="2110009592"/>
+        <c:axId val="2110003224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126027240"/>
+        <c:axId val="2110009592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,7 +2885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126033688"/>
+        <c:crossAx val="2110003224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2905,7 +2893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126033688"/>
+        <c:axId val="2110003224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2999,7 +2987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126027240"/>
+        <c:crossAx val="2110009592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3523,11 +3511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126098440"/>
-        <c:axId val="2126104824"/>
+        <c:axId val="2109939176"/>
+        <c:axId val="2109932872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126098440"/>
+        <c:axId val="2109939176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126104824"/>
+        <c:crossAx val="2109932872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3621,7 +3609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126104824"/>
+        <c:axId val="2109932872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3713,7 +3701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126098440"/>
+        <c:crossAx val="2109939176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4219,11 +4207,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126160072"/>
-        <c:axId val="2126166424"/>
+        <c:axId val="2109877544"/>
+        <c:axId val="2109871272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126160072"/>
+        <c:axId val="2109877544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4309,7 +4297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126166424"/>
+        <c:crossAx val="2109871272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4317,7 +4305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126166424"/>
+        <c:axId val="2109871272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4416,7 +4404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126160072"/>
+        <c:crossAx val="2109877544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8238,7 +8226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -8263,7 +8251,7 @@
   <sheetData>
     <row r="1" spans="2:18">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="15" thickBot="1"/>
@@ -8308,7 +8296,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>11</v>
@@ -8359,7 +8347,7 @@
         <v>2500</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -8667,10 +8655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R14"/>
+  <dimension ref="B2:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8678,7 +8666,11 @@
     <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="1.83203125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="1"/>
     <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
@@ -8749,31 +8741,31 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.85342499999999999</v>
+        <v>1503.8341579999999</v>
       </c>
       <c r="E6" s="2">
-        <v>0.83419500000000002</v>
+        <v>1098.006676</v>
       </c>
       <c r="F6" s="2">
-        <v>0.840804</v>
+        <v>1241.5672119999999</v>
       </c>
       <c r="G6" s="2">
-        <v>0.85930300000000004</v>
+        <v>1241.5672119999999</v>
       </c>
       <c r="H6" s="2">
-        <v>0.84702299999999997</v>
+        <v>1093.231567</v>
       </c>
       <c r="J6" s="2">
         <f>AVERAGE(D6:H6)</f>
-        <v>0.84694999999999998</v>
+        <v>1235.641365</v>
       </c>
       <c r="K6" s="2">
         <f>MIN(D6:H6)</f>
-        <v>0.83419500000000002</v>
+        <v>1093.231567</v>
       </c>
       <c r="M6" s="2">
         <f>K6</f>
-        <v>0.83419500000000002</v>
+        <v>1093.231567</v>
       </c>
       <c r="N6" s="3">
         <v>1</v>
@@ -8782,10 +8774,10 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="14">
-        <v>5000000</v>
+        <v>18</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -8793,35 +8785,35 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.442741</v>
+        <v>640.40094699999997</v>
       </c>
       <c r="E7" s="2">
-        <v>0.444295</v>
+        <v>628.419982</v>
       </c>
       <c r="F7" s="2">
-        <v>0.43781500000000001</v>
+        <v>592.26243999999997</v>
       </c>
       <c r="G7" s="2">
-        <v>0.44293100000000002</v>
+        <v>602.14787999999999</v>
       </c>
       <c r="H7" s="2">
-        <v>0.440058</v>
+        <v>631.85319000000004</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J14" si="0">AVERAGE(D7:H7)</f>
-        <v>0.44156800000000002</v>
+        <f t="shared" ref="J7:J13" si="0">AVERAGE(D7:H7)</f>
+        <v>619.01688780000006</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" ref="K7:K13" si="1">MIN(D7:H7)</f>
-        <v>0.43781500000000001</v>
+        <v>592.26243999999997</v>
       </c>
       <c r="M7" s="2">
         <f>$M$6/B7</f>
-        <v>0.41709750000000001</v>
+        <v>546.61578350000002</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" ref="N7:N14" si="2">$K$6/K7</f>
-        <v>1.905359569681258</v>
+        <f t="shared" ref="N7:N13" si="2">$K$6/K7</f>
+        <v>1.8458566560459246</v>
       </c>
       <c r="O7" s="2">
         <f>$O$6*B7</f>
@@ -8833,35 +8825,35 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>0.25273200000000001</v>
+        <v>311.60974099999999</v>
       </c>
       <c r="E8" s="2">
-        <v>0.24804999999999999</v>
+        <v>353.83589899999998</v>
       </c>
       <c r="F8" s="2">
-        <v>0.27013199999999998</v>
+        <v>315.83378299999998</v>
       </c>
       <c r="G8" s="2">
-        <v>0.25151499999999999</v>
+        <v>306.92437699999999</v>
       </c>
       <c r="H8" s="2">
-        <v>0.26360899999999998</v>
+        <v>352.14566500000001</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>0.25720759999999998</v>
+        <v>328.06989299999998</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>0.24804999999999999</v>
+        <v>306.92437699999999</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" ref="M8:M14" si="3">$M$6/B8</f>
-        <v>0.20854875</v>
+        <f t="shared" ref="M8:M13" si="3">$M$6/B8</f>
+        <v>273.30789175000001</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="2"/>
-        <v>3.3630114896190286</v>
+        <v>3.5618922735485428</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" ref="O8:O9" si="4">$O$6*B8</f>
@@ -8873,35 +8865,35 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>0.232264</v>
+        <v>175.096778</v>
       </c>
       <c r="E9" s="2">
-        <v>0.22955800000000001</v>
+        <v>176.90731299999999</v>
       </c>
       <c r="F9" s="2">
-        <v>0.22243099999999999</v>
+        <v>176.381483</v>
       </c>
       <c r="G9" s="2">
-        <v>0.24835299999999999</v>
+        <v>178.12569300000001</v>
       </c>
       <c r="H9" s="2">
-        <v>0.26863300000000001</v>
+        <v>171.126789</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>0.24024780000000004</v>
+        <v>175.52761120000002</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>0.22243099999999999</v>
+        <v>171.126789</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>0.104274375</v>
+        <v>136.65394587500001</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="2"/>
-        <v>3.7503540423771868</v>
+        <v>6.3884303175933495</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="4"/>
@@ -8913,35 +8905,38 @@
         <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>0.24849499999999999</v>
+        <v>100.401279</v>
       </c>
       <c r="E10" s="2">
-        <v>0.26306600000000002</v>
+        <v>100.149996</v>
       </c>
       <c r="F10" s="2">
-        <v>0.26949200000000001</v>
+        <v>101.17508100000001</v>
       </c>
       <c r="G10" s="2">
-        <v>0.28389500000000001</v>
+        <v>100.351461</v>
       </c>
       <c r="H10" s="2">
-        <v>0.26122000000000001</v>
+        <v>102.901231</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>0.26523360000000001</v>
+        <v>100.9958096</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>0.24849499999999999</v>
+        <v>100.149996</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="3"/>
-        <v>5.2137187500000001E-2</v>
+        <v>68.326972937500003</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="2"/>
-        <v>3.3569890742268456</v>
+        <v>10.915942193347666</v>
+      </c>
+      <c r="O10" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -8949,35 +8944,35 @@
         <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>0.28842699999999999</v>
+        <v>115.25488300000001</v>
       </c>
       <c r="E11" s="2">
-        <v>0.25822499999999998</v>
+        <v>119.722835</v>
       </c>
       <c r="F11" s="2">
-        <v>0.26693600000000001</v>
+        <v>116.902631</v>
       </c>
       <c r="G11" s="2">
-        <v>0.29179899999999998</v>
+        <v>117.321139</v>
       </c>
       <c r="H11" s="2">
-        <v>0.26194000000000001</v>
+        <v>120.341222</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>0.27346539999999997</v>
+        <v>117.90854200000001</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>0.25822499999999998</v>
+        <v>115.25488300000001</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
-        <v>3.4758125000000001E-2</v>
+        <v>45.551315291666668</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="2"/>
-        <v>3.2304966598896314</v>
+        <v>9.4853383955975215</v>
       </c>
     </row>
     <row r="12" spans="2:18">
@@ -8985,35 +8980,35 @@
         <v>32</v>
       </c>
       <c r="D12" s="2">
-        <v>0.34729300000000002</v>
+        <v>100.125683</v>
       </c>
       <c r="E12" s="2">
-        <v>0.32923000000000002</v>
+        <v>94.012542999999994</v>
       </c>
       <c r="F12" s="2">
-        <v>0.31908599999999998</v>
+        <v>96.768693999999996</v>
       </c>
       <c r="G12" s="2">
-        <v>0.31898500000000002</v>
+        <v>92.431274000000002</v>
       </c>
       <c r="H12" s="2">
-        <v>0.31331599999999998</v>
+        <v>94.103390000000005</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>0.32558199999999998</v>
+        <v>95.488316799999978</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>0.31331599999999998</v>
+        <v>92.431274000000002</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
-        <v>2.6068593750000001E-2</v>
+        <v>34.163486468750001</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="2"/>
-        <v>2.662471753756591</v>
+        <v>11.827507289361824</v>
       </c>
     </row>
     <row r="13" spans="2:18">
@@ -9021,71 +9016,35 @@
         <v>40</v>
       </c>
       <c r="D13" s="2">
-        <v>0.43299500000000002</v>
+        <v>88.318235999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>0.37698199999999998</v>
+        <v>99.428898000000004</v>
       </c>
       <c r="F13" s="2">
-        <v>0.40404299999999999</v>
+        <v>95.219353999999996</v>
       </c>
       <c r="G13" s="2">
-        <v>0.32450800000000002</v>
+        <v>92.947162000000006</v>
       </c>
       <c r="H13" s="2">
-        <v>0.36399199999999998</v>
+        <v>94.123670000000004</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>0.38050400000000001</v>
+        <v>94.007463999999999</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>0.32450800000000002</v>
+        <v>88.318235999999999</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
-        <v>2.0854875000000002E-2</v>
+        <v>27.330789175</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="2"/>
-        <v>2.5706454078173726</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1">
-      <c r="B14" s="10">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.44735900000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.442965</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.47686600000000001</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.373691</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.52825</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.45382619999999996</v>
-      </c>
-      <c r="K14" s="2">
-        <f>MIN(D14:H14)</f>
-        <v>0.373691</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="3"/>
-        <v>1.73790625E-2</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="2"/>
-        <v>2.2323122579885522</v>
+        <v>12.378322037591422</v>
       </c>
     </row>
   </sheetData>
@@ -9218,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R6" s="14">
         <v>20000000</v>
@@ -9594,7 +9553,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="4.5" customHeight="1" thickBot="1"/>

--- a/gráficos.xlsx
+++ b/gráficos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="14800" tabRatio="714" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="714" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="19KBytes" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Threads</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Sem Otimização</t>
-  </si>
-  <si>
-    <t>Com Otimização</t>
   </si>
   <si>
     <t>Melhor Valor</t>
@@ -79,6 +76,60 @@
   </si>
   <si>
     <t>28203,125 KBytes</t>
+  </si>
+  <si>
+    <t>Speed Up ideal</t>
+  </si>
+  <si>
+    <t>Com Otimização -O2</t>
+  </si>
+  <si>
+    <t>Com Otimização -O3</t>
+  </si>
+  <si>
+    <t>N=500</t>
+  </si>
+  <si>
+    <t>524.934089</t>
+  </si>
+  <si>
+    <t>401.359625</t>
+  </si>
+  <si>
+    <t>212.077321</t>
+  </si>
+  <si>
+    <t>204.090607</t>
+  </si>
+  <si>
+    <t>101.620682</t>
+  </si>
+  <si>
+    <t>113.617009</t>
+  </si>
+  <si>
+    <t>65.919042</t>
+  </si>
+  <si>
+    <t>65.654728</t>
+  </si>
+  <si>
+    <t>52.099175</t>
+  </si>
+  <si>
+    <t>58.559841</t>
+  </si>
+  <si>
+    <t>72.912672</t>
+  </si>
+  <si>
+    <t>64.392121</t>
+  </si>
+  <si>
+    <t>64.148115</t>
+  </si>
+  <si>
+    <t>57.639741</t>
   </si>
 </sst>
 </file>
@@ -231,8 +282,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -304,7 +413,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -313,6 +422,35 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -321,6 +459,35 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,258 +575,14 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0543586030171302"/>
-                  <c:y val="-0.0548650465692719"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0543586030171302"/>
-                  <c:y val="-0.0584064360710877"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0543586030171302"/>
-                  <c:y val="-0.0584064360710877"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0543586030171303"/>
-                  <c:y val="-0.0654892150747191"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0564834368367214"/>
-                  <c:y val="-0.0831961625837979"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0543586030171303"/>
-                  <c:y val="-0.0584064360710877"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0495139819084623"/>
-                  <c:y val="-0.0831961625837978"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0516388157280534"/>
-                  <c:y val="-0.0654892150747191"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0313254044127613"/>
-                  <c:y val="-0.107985889096508"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes'!$B$6:$B$14</c:f>
+              <c:f>'19KBytes'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -680,48 +603,112 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes'!$K$6:$K$14</c:f>
+              <c:f>'19KBytes'!$K$6:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.111294</c:v>
+                  <c:v>0.021783</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.060096</c:v>
+                  <c:v>0.027819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.049375</c:v>
+                  <c:v>0.027747</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.045332</c:v>
+                  <c:v>0.033171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.060967</c:v>
+                  <c:v>0.058358</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.084466</c:v>
+                  <c:v>0.07838</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.106984</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.140871</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.746223</c:v>
+                  <c:v>0.103447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="38100" cmpd="sng">
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'19KBytes'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'19KBytes'!$M$6:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.021783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0108915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00544575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.002722875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0013614375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000907625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00068071875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,11 +726,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110577304"/>
-        <c:axId val="2110583480"/>
+        <c:axId val="2092099656"/>
+        <c:axId val="2092094600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2110577304"/>
+        <c:axId val="2092099656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110583480"/>
+        <c:crossAx val="2092094600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -837,7 +824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110583480"/>
+        <c:axId val="2092094600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110577304"/>
+        <c:crossAx val="2092099656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1052,258 +1039,14 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0391382303575968"/>
-                  <c:y val="-0.0613868935838833"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0391382303575968"/>
-                  <c:y val="-0.0693116075531884"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0391382303575968"/>
-                  <c:y val="-0.073273964537841"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0391382303575968"/>
-                  <c:y val="-0.0851610354917988"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0415156446967374"/>
-                  <c:y val="-0.073273964537841"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0391382303575969"/>
-                  <c:y val="-0.0732739645378409"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0391382303575968"/>
-                  <c:y val="-0.0693116075531884"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0391382303575968"/>
-                  <c:y val="-0.065349250568536"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0391382303575968"/>
-                  <c:y val="-0.0653492505685358"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'19KBytes'!$B$6:$B$14</c:f>
+              <c:f>'19KBytes'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1324,48 +1067,107 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'19KBytes'!$N$6:$N$14</c:f>
+              <c:f>'19KBytes'!$N$6:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.851936900958466</c:v>
+                  <c:v>0.783025989431683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.254055696202532</c:v>
+                  <c:v>0.785057844091253</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.45508691432101</c:v>
+                  <c:v>0.656688070905309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.825479357685305</c:v>
+                  <c:v>0.373265019363241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.317618923590557</c:v>
+                  <c:v>0.277915284511355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.040286397966051</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.790041953276402</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0637341278863009</c:v>
+                  <c:v>0.210571597049697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="38100" cmpd="sng">
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'19KBytes'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'19KBytes'!$O$6:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,11 +1185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110670168"/>
-        <c:axId val="2110676344"/>
+        <c:axId val="2092019880"/>
+        <c:axId val="2092013560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2110670168"/>
+        <c:axId val="2092019880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110676344"/>
+        <c:crossAx val="2092013560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1481,7 +1283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110676344"/>
+        <c:axId val="2092013560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110670168"/>
+        <c:crossAx val="2092019880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1688,8 +1490,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1704,249 +1506,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0427899015832264"/>
-                  <c:y val="-0.0315374463718555"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0427899015832264"/>
-                  <c:y val="-0.13315810690339"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0410783055198973"/>
-                  <c:y val="-0.0981164998235503"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0427899015832264"/>
-                  <c:y val="-0.0876040176995985"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0445014976465555"/>
-                  <c:y val="-0.063074892743711"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0445014976465554"/>
-                  <c:y val="-0.0630748927437111"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0427899015832264"/>
-                  <c:y val="-0.0805956962836307"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0427899015832264"/>
-                  <c:y val="-0.0876040176995985"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.032520325203252"/>
-                  <c:y val="-0.059570732035727"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'28203KBytes'!$B$6:$B$13</c:f>
+              <c:f>'28203KBytes'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1967,42 +1532,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'28203KBytes'!$K$6:$K$13</c:f>
+              <c:f>'28203KBytes'!$P$6:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1093.231567</c:v>
+                  <c:v>524.934089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>592.26244</c:v>
+                  <c:v>211.978805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>306.924377</c:v>
+                  <c:v>114.851928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.126789</c:v>
+                  <c:v>65.730497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.149996</c:v>
+                  <c:v>51.440548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115.254883</c:v>
+                  <c:v>55.794819</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.431274</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>88.318236</c:v>
+                  <c:v>60.421945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,8 +1569,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>Series 2</c:v>
           </c:tx>
@@ -2030,33 +1589,163 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'28203KBytes'!$M$6:$M$13</c:f>
+              <c:f>'28203KBytes'!$R$6:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1093.231567</c:v>
+                  <c:v>524.934089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>546.6157835</c:v>
+                  <c:v>262.4670445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.30789175</c:v>
+                  <c:v>131.23352225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136.653945875</c:v>
+                  <c:v>65.616761125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.3269729375</c:v>
+                  <c:v>32.8083805625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.55131529166667</c:v>
+                  <c:v>21.87225370833333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.16348646875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27.330789175</c:v>
+                  <c:v>16.40419028125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sem flag</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'28203KBytes'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'28203KBytes'!$P$6:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>524.934089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.978805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.851928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.730497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.440548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.794819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.421945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tempo ideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'28203KBytes'!$R$6:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>524.934089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>262.4670445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.23352225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.616761125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.8083805625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.87225370833333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.40419028125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,11 +1762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110748088"/>
-        <c:axId val="2110754472"/>
+        <c:axId val="2091945336"/>
+        <c:axId val="2091938872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2110748088"/>
+        <c:axId val="2091945336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +1852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110754472"/>
+        <c:crossAx val="2091938872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2171,7 +1860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110754472"/>
+        <c:axId val="2091938872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,7 +1954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110748088"/>
+        <c:crossAx val="2091945336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2378,7 +2067,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Speed Up</c:v>
+            <c:v>Sem flags</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2392,259 +2081,12 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0307115054511748"/>
-                  <c:y val="-0.05030890781476"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0295447605067213"/>
-                  <c:y val="0.0564553590858192"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0295447605067213"/>
-                  <c:y val="0.0625561743372809"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.030057229012462"/>
-                  <c:y val="-0.0503089078147601"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0282269843491023"/>
-                  <c:y val="0.0564553590858191"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0295447605067212"/>
-                  <c:y val="-0.0472585001890293"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0300572290124621"/>
-                  <c:y val="0.0412033209571651"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0300572290124621"/>
-                  <c:y val="-0.0472585001890292"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0303166337678989"/>
-                  <c:y val="0.0442537285828959"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'28203KBytes'!$B$6:$B$13</c:f>
+              <c:f>'28203KBytes'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2665,42 +2107,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'28203KBytes'!$N$6:$N$13</c:f>
+              <c:f>'28203KBytes'!$S$6:$S$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.845856656045925</c:v>
+                  <c:v>2.476351770168721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.561892273548543</c:v>
+                  <c:v>4.570529186066427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.388430317593349</c:v>
+                  <c:v>7.986157308380004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.91594219334767</c:v>
+                  <c:v>10.20467528845144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.485338395597521</c:v>
+                  <c:v>9.408294504907345</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.82750728936182</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.37832203759142</c:v>
+                  <c:v>8.68780521712765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,28 +2146,20 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Speed Up Ideal</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="38100" cmpd="sng">
               <a:prstDash val="sysDot"/>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'28203KBytes'!$B$6:$B$13</c:f>
+              <c:f>'28203KBytes'!$B$6:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2752,19 +2180,16 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'28203KBytes'!$O$6:$O$14</c:f>
+              <c:f>'28203KBytes'!$T$6:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2795,11 +2220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110009592"/>
-        <c:axId val="2110003224"/>
+        <c:axId val="2094271304"/>
+        <c:axId val="2094277688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2110009592"/>
+        <c:axId val="2094271304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2885,7 +2310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110003224"/>
+        <c:crossAx val="2094277688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2893,7 +2318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110003224"/>
+        <c:axId val="2094277688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,7 +2412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110009592"/>
+        <c:crossAx val="2094271304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3076,7 +2501,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3511,11 +2935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109939176"/>
-        <c:axId val="2109932872"/>
+        <c:axId val="2094345272"/>
+        <c:axId val="2094351560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109939176"/>
+        <c:axId val="2094345272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3601,7 +3025,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109932872"/>
+        <c:crossAx val="2094351560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3609,7 +3033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109932872"/>
+        <c:axId val="2094351560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3660,7 +3084,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3701,7 +3124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109939176"/>
+        <c:crossAx val="2094345272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3790,7 +3213,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4207,11 +3629,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109877544"/>
-        <c:axId val="2109871272"/>
+        <c:axId val="2094406936"/>
+        <c:axId val="2094413192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109877544"/>
+        <c:axId val="2094406936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4297,7 +3719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109871272"/>
+        <c:crossAx val="2094413192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4305,7 +3727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109871272"/>
+        <c:axId val="2094413192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4404,7 +3826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109877544"/>
+        <c:crossAx val="2094406936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7746,16 +7168,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7778,13 +7200,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7813,13 +7235,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7843,13 +7265,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8224,10 +7646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R14"/>
+  <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8251,7 +7673,7 @@
   <sheetData>
     <row r="1" spans="2:18">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="15" thickBot="1"/>
@@ -8287,7 +7709,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>5</v>
@@ -8295,11 +7717,14 @@
       <c r="N4" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>2</v>
@@ -8311,35 +7736,38 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.11942999999999999</v>
+        <v>2.6457999999999999E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>0.11389299999999999</v>
+        <v>2.2207000000000001E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>0.111294</v>
+        <v>2.1783E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>0.113901</v>
+        <v>2.1801999999999998E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>0.113094</v>
+        <v>2.2218999999999999E-2</v>
       </c>
       <c r="J6" s="2">
         <f>AVERAGE(D6:H6)</f>
-        <v>0.1143224</v>
+        <v>2.2893799999999999E-2</v>
       </c>
       <c r="K6" s="2">
         <f>MIN(D6:H6)</f>
-        <v>0.111294</v>
+        <v>2.1783E-2</v>
       </c>
       <c r="M6" s="2">
         <f>K6</f>
-        <v>0.111294</v>
+        <v>2.1783E-2</v>
       </c>
       <c r="N6" s="3">
         <v>1</v>
       </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
       <c r="P6" s="1">
         <v>50</v>
       </c>
@@ -8347,7 +7775,7 @@
         <v>2500</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -8355,35 +7783,38 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>7.4137999999999996E-2</v>
+        <v>2.8844999999999999E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>7.5689000000000006E-2</v>
+        <v>2.8060000000000002E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>6.0095999999999997E-2</v>
+        <v>2.8281000000000001E-2</v>
       </c>
       <c r="G7" s="2">
-        <v>7.7293000000000001E-2</v>
+        <v>2.7819E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>7.6176999999999995E-2</v>
+        <v>2.7916E-2</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J14" si="0">AVERAGE(D7:H7)</f>
-        <v>7.2678599999999996E-2</v>
+        <f t="shared" ref="J7:J12" si="0">AVERAGE(D7:H7)</f>
+        <v>2.81842E-2</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ref="K7:K13" si="1">MIN(D7:H7)</f>
-        <v>6.0095999999999997E-2</v>
+        <f t="shared" ref="K7:K12" si="1">MIN(D7:H7)</f>
+        <v>2.7819E-2</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" ref="M7:M14" si="2">$M$6/B7</f>
-        <v>5.5647000000000002E-2</v>
+        <f t="shared" ref="M7:M12" si="2">$M$6/B7</f>
+        <v>1.08915E-2</v>
       </c>
       <c r="N7" s="3">
         <f>$K$6/K7</f>
-        <v>1.8519369009584665</v>
+        <v>0.78302598943168344</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -8391,35 +7822,38 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>5.1216999999999999E-2</v>
+        <v>2.7747000000000001E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>4.9375000000000002E-2</v>
+        <v>2.9413000000000002E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>5.3293E-2</v>
+        <v>2.8178999999999999E-2</v>
       </c>
       <c r="G8" s="2">
-        <v>4.9557999999999998E-2</v>
+        <v>2.8219999999999999E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>5.0097999999999997E-2</v>
+        <v>2.8302999999999998E-2</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>5.0708199999999995E-2</v>
+        <v>2.8372399999999999E-2</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>4.9375000000000002E-2</v>
+        <v>2.7747000000000001E-2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>2.7823500000000001E-2</v>
+        <v>5.4457500000000001E-3</v>
       </c>
       <c r="N8" s="3">
         <f>$K$6/K8</f>
-        <v>2.2540556962025318</v>
+        <v>0.78505784409125312</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -8427,35 +7861,38 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>4.6351000000000003E-2</v>
+        <v>3.3619000000000003E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>4.5331999999999997E-2</v>
+        <v>3.3645000000000001E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>4.5888999999999999E-2</v>
+        <v>3.3822999999999999E-2</v>
       </c>
       <c r="G9" s="2">
-        <v>4.6582999999999999E-2</v>
+        <v>3.3669999999999999E-2</v>
       </c>
       <c r="H9" s="2">
-        <v>4.5586000000000002E-2</v>
+        <v>3.3170999999999999E-2</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>4.5948200000000008E-2</v>
+        <v>3.3585600000000007E-2</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>4.5331999999999997E-2</v>
+        <v>3.3170999999999999E-2</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="2"/>
-        <v>1.3911750000000001E-2</v>
+        <v>2.722875E-3</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" ref="N9:N14" si="3">$K$6/K9</f>
-        <v>2.4550869143210097</v>
+        <f t="shared" ref="N9:N12" si="3">$K$6/K9</f>
+        <v>0.6566880709053089</v>
+      </c>
+      <c r="O9" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -8463,35 +7900,35 @@
         <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>6.0967E-2</v>
+        <v>5.9575999999999997E-2</v>
       </c>
       <c r="E10" s="2">
-        <v>6.1913000000000003E-2</v>
+        <v>5.8604000000000003E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>6.2566999999999998E-2</v>
+        <v>5.8727000000000001E-2</v>
       </c>
       <c r="G10" s="2">
-        <v>6.1372999999999997E-2</v>
+        <v>5.8358E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>6.3167000000000001E-2</v>
+        <v>5.9326999999999998E-2</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>6.1997400000000001E-2</v>
+        <v>5.8918400000000003E-2</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>6.0967E-2</v>
+        <v>5.8358E-2</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="2"/>
-        <v>6.9558750000000003E-3</v>
+        <v>1.3614375E-3</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="3"/>
-        <v>1.8254793576853052</v>
+        <v>0.37326501936324069</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -8499,35 +7936,35 @@
         <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>8.4593000000000002E-2</v>
+        <v>7.8380000000000005E-2</v>
       </c>
       <c r="E11" s="2">
-        <v>8.6021E-2</v>
+        <v>7.9672999999999994E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>8.5511000000000004E-2</v>
+        <v>7.9186999999999994E-2</v>
       </c>
       <c r="G11" s="2">
-        <v>8.4465999999999999E-2</v>
+        <v>8.1200999999999995E-2</v>
       </c>
       <c r="H11" s="2">
-        <v>8.6208000000000007E-2</v>
+        <v>7.8648999999999997E-2</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>8.53598E-2</v>
+        <v>7.9417999999999989E-2</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>8.4465999999999999E-2</v>
+        <v>7.8380000000000005E-2</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="2"/>
-        <v>4.6372499999999999E-3</v>
+        <v>9.0762500000000001E-4</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="3"/>
-        <v>1.3176189235905571</v>
+        <v>0.27791528451135494</v>
       </c>
     </row>
     <row r="12" spans="2:18">
@@ -8535,107 +7972,35 @@
         <v>32</v>
       </c>
       <c r="D12" s="2">
-        <v>0.106984</v>
+        <v>0.110847</v>
       </c>
       <c r="E12" s="2">
-        <v>0.108385</v>
+        <v>0.11165</v>
       </c>
       <c r="F12" s="2">
-        <v>0.10814600000000001</v>
+        <v>0.11117200000000001</v>
       </c>
       <c r="G12" s="2">
-        <v>0.11047800000000001</v>
+        <v>0.111915</v>
       </c>
       <c r="H12" s="2">
-        <v>0.107742</v>
+        <v>0.103447</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>0.10834700000000001</v>
+        <v>0.10980619999999999</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>0.106984</v>
+        <v>0.103447</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="2"/>
-        <v>3.4779375000000001E-3</v>
+        <v>6.8071875000000001E-4</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="3"/>
-        <v>1.040286397966051</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="9">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.6312549999999999</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.140871</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4.9316490000000002</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.883634</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.783335</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.8741487999999999</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.140871</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="2"/>
-        <v>2.7823500000000003E-3</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="3"/>
-        <v>0.79004195327640181</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1">
-      <c r="B14" s="10">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.7462230000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.2636940000000001</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.2265229999999998</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.8073509999999999</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2.181521</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0450623999999999</v>
-      </c>
-      <c r="K14" s="2">
-        <f>MIN(D14:H14)</f>
-        <v>1.7462230000000001</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="2"/>
-        <v>2.3186249999999999E-3</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="3"/>
-        <v>6.3734127886300895E-2</v>
+        <v>0.21057159704969697</v>
       </c>
     </row>
   </sheetData>
@@ -8655,10 +8020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R13"/>
+  <dimension ref="B2:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8671,21 +8036,23 @@
     <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.83203125" style="1"/>
     <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="19" max="19" width="8.83203125" style="1"/>
+    <col min="20" max="20" width="20" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1"/>
-    <row r="3" spans="2:18" ht="15" thickBot="1">
+    <row r="2" spans="2:24" ht="15" thickBot="1"/>
+    <row r="3" spans="2:24" ht="29" customHeight="1" thickBot="1">
       <c r="D3" s="15" t="s">
         <v>1</v>
       </c>
@@ -8694,7 +8061,7 @@
       <c r="G3" s="16"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1">
+    <row r="4" spans="2:24" ht="35" customHeight="1" thickBot="1">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -8713,338 +8080,340 @@
       <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="P4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>11</v>
+      <c r="X4" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="3.75" customHeight="1" thickBot="1"/>
-    <row r="6" spans="2:18">
+    <row r="5" spans="2:24" ht="8" customHeight="1" thickBot="1"/>
+    <row r="6" spans="2:24">
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>1503.8341579999999</v>
+        <v>527.65930100000003</v>
       </c>
       <c r="E6" s="2">
-        <v>1098.006676</v>
+        <v>533.79072699999995</v>
       </c>
       <c r="F6" s="2">
-        <v>1241.5672119999999</v>
+        <v>528.60660900000005</v>
       </c>
       <c r="G6" s="2">
-        <v>1241.5672119999999</v>
+        <v>348.791696</v>
       </c>
       <c r="H6" s="2">
-        <v>1093.231567</v>
-      </c>
-      <c r="J6" s="2">
+        <v>568.10464100000002</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="2">
         <f>AVERAGE(D6:H6)</f>
-        <v>1235.641365</v>
-      </c>
-      <c r="K6" s="2">
-        <f>MIN(D6:H6)</f>
-        <v>1093.231567</v>
-      </c>
-      <c r="M6" s="2">
-        <f>K6</f>
-        <v>1093.231567</v>
-      </c>
-      <c r="N6" s="3">
+        <v>501.39059480000003</v>
+      </c>
+      <c r="P6" s="1">
+        <v>524.93408899999997</v>
+      </c>
+      <c r="R6" s="2">
+        <f>P6</f>
+        <v>524.93408899999997</v>
+      </c>
+      <c r="S6" s="3">
         <v>1</v>
       </c>
-      <c r="O6" s="2">
+      <c r="T6" s="2">
         <v>1</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="14" t="s">
+      <c r="V6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="X6" s="14" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:24">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>640.40094699999997</v>
+        <v>219.702518</v>
       </c>
       <c r="E7" s="2">
-        <v>628.419982</v>
+        <v>188.27987200000001</v>
       </c>
       <c r="F7" s="2">
-        <v>592.26243999999997</v>
+        <v>209.93047100000001</v>
       </c>
       <c r="G7" s="2">
-        <v>602.14787999999999</v>
+        <v>211.97880499999999</v>
       </c>
       <c r="H7" s="2">
-        <v>631.85319000000004</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:J13" si="0">AVERAGE(D7:H7)</f>
-        <v>619.01688780000006</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" ref="K7:K13" si="1">MIN(D7:H7)</f>
-        <v>592.26243999999997</v>
-      </c>
-      <c r="M7" s="2">
-        <f>$M$6/B7</f>
-        <v>546.61578350000002</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" ref="N7:N13" si="2">$K$6/K7</f>
-        <v>1.8458566560459246</v>
+        <v>204.617019</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="O7" s="2">
-        <f>$O$6*B7</f>
+        <f>AVERAGE(D7:H7)</f>
+        <v>206.901737</v>
+      </c>
+      <c r="P7" s="2">
+        <v>211.97880499999999</v>
+      </c>
+      <c r="R7" s="2">
+        <f>$R$6/B7</f>
+        <v>262.46704449999999</v>
+      </c>
+      <c r="S7" s="3">
+        <f>$P$6/P7</f>
+        <v>2.4763517701687205</v>
+      </c>
+      <c r="T7" s="2">
+        <f>$T$6*B7</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:24">
       <c r="B8" s="9">
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>311.60974099999999</v>
+        <v>110.834423</v>
       </c>
       <c r="E8" s="2">
-        <v>353.83589899999998</v>
+        <v>109.648769</v>
       </c>
       <c r="F8" s="2">
-        <v>315.83378299999998</v>
+        <v>114.851928</v>
       </c>
       <c r="G8" s="2">
-        <v>306.92437699999999</v>
+        <v>110.82781900000001</v>
       </c>
       <c r="H8" s="2">
-        <v>352.14566500000001</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>328.06989299999998</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="1"/>
-        <v>306.92437699999999</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" ref="M8:M13" si="3">$M$6/B8</f>
-        <v>273.30789175000001</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="2"/>
-        <v>3.5618922735485428</v>
+        <v>114.307408</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" ref="O8:O9" si="4">$O$6*B8</f>
+        <f>AVERAGE(D8:H8)</f>
+        <v>112.09406940000001</v>
+      </c>
+      <c r="P8" s="2">
+        <v>114.851928</v>
+      </c>
+      <c r="R8" s="2">
+        <f>$R$6/B8</f>
+        <v>131.23352224999999</v>
+      </c>
+      <c r="S8" s="3">
+        <f>$P$6/P8</f>
+        <v>4.5705291860664277</v>
+      </c>
+      <c r="T8" s="2">
+        <f>$T$6*B8</f>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:24">
       <c r="B9" s="9">
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>175.096778</v>
+        <v>66.921290999999997</v>
       </c>
       <c r="E9" s="2">
-        <v>176.90731299999999</v>
+        <v>63.577198000000003</v>
       </c>
       <c r="F9" s="2">
-        <v>176.381483</v>
+        <v>65.730497</v>
       </c>
       <c r="G9" s="2">
-        <v>178.12569300000001</v>
+        <v>66.236430999999996</v>
       </c>
       <c r="H9" s="2">
-        <v>171.126789</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="0"/>
-        <v>175.52761120000002</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="1"/>
-        <v>171.126789</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="3"/>
-        <v>136.65394587500001</v>
-      </c>
-      <c r="N9" s="3">
-        <f t="shared" si="2"/>
-        <v>6.3884303175933495</v>
+        <v>68.705012999999994</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(D9:H9)</f>
+        <v>66.234086000000005</v>
+      </c>
+      <c r="P9" s="2">
+        <v>65.730497</v>
+      </c>
+      <c r="R9" s="2">
+        <f>$R$6/B9</f>
+        <v>65.616761124999996</v>
+      </c>
+      <c r="S9" s="3">
+        <f>$P$6/P9</f>
+        <v>7.9861573083800046</v>
+      </c>
+      <c r="T9" s="2">
+        <f>$T$6*B9</f>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:24">
       <c r="B10" s="9">
         <v>16</v>
       </c>
       <c r="D10" s="2">
-        <v>100.401279</v>
+        <v>51.440548</v>
       </c>
       <c r="E10" s="2">
-        <v>100.149996</v>
+        <v>52.865470000000002</v>
       </c>
       <c r="F10" s="2">
-        <v>101.17508100000001</v>
+        <v>56.900089000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>100.351461</v>
+        <v>56.277006</v>
       </c>
       <c r="H10" s="2">
-        <v>102.901231</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>100.9958096</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="1"/>
-        <v>100.149996</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="3"/>
-        <v>68.326972937500003</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="2"/>
-        <v>10.915942193347666</v>
-      </c>
-      <c r="O10" s="1">
+        <v>53.017001999999998</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2">
+        <f>AVERAGE(D10:H10)</f>
+        <v>54.100023</v>
+      </c>
+      <c r="P10" s="2">
+        <f>MIN(D10:H10)</f>
+        <v>51.440548</v>
+      </c>
+      <c r="R10" s="2">
+        <f>$R$6/B10</f>
+        <v>32.808380562499998</v>
+      </c>
+      <c r="S10" s="3">
+        <f>$P$6/P10</f>
+        <v>10.204675288451437</v>
+      </c>
+      <c r="T10" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:24">
       <c r="B11" s="9">
         <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>115.25488300000001</v>
+        <v>59.891556000000001</v>
       </c>
       <c r="E11" s="2">
-        <v>119.722835</v>
+        <v>58.917157000000003</v>
       </c>
       <c r="F11" s="2">
-        <v>116.902631</v>
+        <v>57.146166000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>117.321139</v>
+        <v>55.794818999999997</v>
       </c>
       <c r="H11" s="2">
-        <v>120.341222</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>117.90854200000001</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="1"/>
-        <v>115.25488300000001</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="3"/>
-        <v>45.551315291666668</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="2"/>
-        <v>9.4853383955975215</v>
+        <v>56.745552000000004</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="2">
+        <f>AVERAGE(D11:H11)</f>
+        <v>57.69905</v>
+      </c>
+      <c r="P11" s="2">
+        <f>MIN(D11:H11)</f>
+        <v>55.794818999999997</v>
+      </c>
+      <c r="R11" s="2">
+        <f>$R$6/B11</f>
+        <v>21.872253708333332</v>
+      </c>
+      <c r="S11" s="3">
+        <f>$P$6/P11</f>
+        <v>9.4082945049073459</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:24">
       <c r="B12" s="9">
         <v>32</v>
       </c>
       <c r="D12" s="2">
-        <v>100.125683</v>
+        <v>65.906236000000007</v>
       </c>
       <c r="E12" s="2">
-        <v>94.012542999999994</v>
+        <v>60.421945000000001</v>
       </c>
       <c r="F12" s="2">
-        <v>96.768693999999996</v>
+        <v>76.723035999999993</v>
       </c>
       <c r="G12" s="2">
-        <v>92.431274000000002</v>
+        <v>75.566578000000007</v>
       </c>
       <c r="H12" s="2">
-        <v>94.103390000000005</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
-        <v>95.488316799999978</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="1"/>
-        <v>92.431274000000002</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="3"/>
-        <v>34.163486468750001</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="2"/>
-        <v>11.827507289361824</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="9">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2">
-        <v>88.318235999999999</v>
-      </c>
-      <c r="E13" s="2">
-        <v>99.428898000000004</v>
-      </c>
-      <c r="F13" s="2">
-        <v>95.219353999999996</v>
-      </c>
-      <c r="G13" s="2">
-        <v>92.947162000000006</v>
-      </c>
-      <c r="H13" s="2">
-        <v>94.123670000000004</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>94.007463999999999</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="1"/>
-        <v>88.318235999999999</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="3"/>
-        <v>27.330789175</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="2"/>
-        <v>12.378322037591422</v>
+        <v>63.795687000000001</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="2">
+        <f>AVERAGE(D12:H12)</f>
+        <v>68.482696399999995</v>
+      </c>
+      <c r="P12" s="2">
+        <f>MIN(D12:H12)</f>
+        <v>60.421945000000001</v>
+      </c>
+      <c r="R12" s="2">
+        <f>$R$6/B12</f>
+        <v>16.404190281249999</v>
+      </c>
+      <c r="S12" s="3">
+        <f>$P$6/P12</f>
+        <v>8.6878052171276501</v>
       </c>
     </row>
   </sheetData>
@@ -9052,6 +8421,7 @@
     <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -9120,7 +8490,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>5</v>
@@ -9135,7 +8505,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="4.5" customHeight="1" thickBot="1"/>
@@ -9177,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R6" s="14">
         <v>20000000</v>
@@ -9500,10 +8870,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M7"/>
+  <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9523,7 +8893,7 @@
     <row r="2" spans="2:13" ht="15" thickBot="1"/>
     <row r="3" spans="2:13" ht="15" thickBot="1">
       <c r="D3" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -9550,10 +8920,10 @@
         <v>3</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="4.5" customHeight="1" thickBot="1"/>
@@ -9562,59 +8932,92 @@
         <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>0.71914699999999998</v>
+        <v>62.857823000000003</v>
       </c>
       <c r="E6" s="2">
-        <v>0.71662599999999999</v>
+        <v>62.847183999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>0.71665800000000002</v>
+        <v>64.367891999999998</v>
       </c>
       <c r="G6" s="2">
-        <v>0.72587100000000004</v>
+        <v>64.802111999999994</v>
       </c>
       <c r="H6" s="2">
-        <v>0.71612799999999999</v>
+        <v>64.358690999999993</v>
       </c>
       <c r="J6" s="2">
         <f>AVERAGE(D6:H6)</f>
-        <v>0.71888600000000002</v>
+        <v>63.846740400000002</v>
       </c>
       <c r="K6" s="2">
         <f>MIN(D6:H6)</f>
-        <v>0.71612799999999999</v>
+        <v>62.847183999999999</v>
       </c>
       <c r="M6" s="3">
         <f>J6-J7</f>
-        <v>0.40793900000000005</v>
+        <v>49.6259412</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15" thickBot="1">
       <c r="B7" s="10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>0.31110599999999999</v>
+        <v>14.414586999999999</v>
       </c>
       <c r="E7" s="2">
-        <v>0.31103700000000001</v>
+        <v>14.426406999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>0.31102099999999999</v>
+        <v>14.325676</v>
       </c>
       <c r="G7" s="2">
-        <v>0.31151000000000001</v>
+        <v>13.955185</v>
       </c>
       <c r="H7" s="2">
-        <v>0.31006099999999998</v>
+        <v>13.982141</v>
       </c>
       <c r="J7" s="2">
         <f>AVERAGE(D7:H7)</f>
-        <v>0.31094699999999997</v>
+        <v>14.220799199999998</v>
       </c>
       <c r="K7" s="2">
         <f>MIN(D7:H7)</f>
-        <v>0.31006099999999998</v>
+        <v>13.955185</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15" thickBot="1">
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12.926603999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12.759304</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12.76512</v>
+      </c>
+      <c r="G8" s="2">
+        <v>12.805364000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>12.883858</v>
+      </c>
+      <c r="J8" s="2">
+        <f>AVERAGE(D8:H8)</f>
+        <v>12.828049999999999</v>
+      </c>
+      <c r="K8" s="2">
+        <f>MIN(D8:H8)</f>
+        <v>12.759304</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -9622,7 +9025,7 @@
     <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/gráficos.xlsx
+++ b/gráficos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Threads</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>57.639741</t>
+  </si>
+  <si>
+    <t>529.548179</t>
+  </si>
+  <si>
+    <t>530.120511</t>
+  </si>
+  <si>
+    <t>350.602048</t>
+  </si>
+  <si>
+    <t>353.931221</t>
+  </si>
+  <si>
+    <t>568.963552</t>
   </si>
 </sst>
 </file>
@@ -543,7 +558,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -726,11 +740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092099656"/>
-        <c:axId val="2092094600"/>
+        <c:axId val="2075295352"/>
+        <c:axId val="2075289496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092099656"/>
+        <c:axId val="2075295352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092094600"/>
+        <c:crossAx val="2075289496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -824,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092094600"/>
+        <c:axId val="2075289496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092099656"/>
+        <c:crossAx val="2075295352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1007,7 +1021,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1185,11 +1198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092019880"/>
-        <c:axId val="2092013560"/>
+        <c:axId val="2076700744"/>
+        <c:axId val="2076707080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092019880"/>
+        <c:axId val="2076700744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,7 +1288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092013560"/>
+        <c:crossAx val="2076707080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1283,7 +1296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092013560"/>
+        <c:axId val="2076707080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092019880"/>
+        <c:crossAx val="2076700744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,11 +1775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2091945336"/>
-        <c:axId val="2091938872"/>
+        <c:axId val="2075178232"/>
+        <c:axId val="2075171768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091945336"/>
+        <c:axId val="2075178232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091938872"/>
+        <c:crossAx val="2075171768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1860,7 +1873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091938872"/>
+        <c:axId val="2075171768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091945336"/>
+        <c:crossAx val="2075178232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2220,11 +2233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094271304"/>
-        <c:axId val="2094277688"/>
+        <c:axId val="2075133720"/>
+        <c:axId val="2077421192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094271304"/>
+        <c:axId val="2075133720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094277688"/>
+        <c:crossAx val="2077421192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2318,7 +2331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094277688"/>
+        <c:axId val="2077421192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +2425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094271304"/>
+        <c:crossAx val="2075133720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2935,11 +2948,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094345272"/>
-        <c:axId val="2094351560"/>
+        <c:axId val="2077488424"/>
+        <c:axId val="2077494712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094345272"/>
+        <c:axId val="2077488424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,7 +3038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094351560"/>
+        <c:crossAx val="2077494712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3033,7 +3046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094351560"/>
+        <c:axId val="2077494712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3124,7 +3137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094345272"/>
+        <c:crossAx val="2077488424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3629,11 +3642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094406936"/>
-        <c:axId val="2094413192"/>
+        <c:axId val="2077550616"/>
+        <c:axId val="2077556872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094406936"/>
+        <c:axId val="2077550616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3719,7 +3732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094413192"/>
+        <c:crossAx val="2077556872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3727,7 +3740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094413192"/>
+        <c:axId val="2077556872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,7 +3839,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094406936"/>
+        <c:crossAx val="2077550616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8022,8 +8035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8060,6 +8073,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="17"/>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="2:24" ht="35" customHeight="1" thickBot="1">
       <c r="B4" s="7" t="s">
@@ -8079,6 +8098,12 @@
       </c>
       <c r="H4" s="5">
         <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>3</v>
@@ -8128,8 +8153,11 @@
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="O6" s="2">
-        <f>AVERAGE(D6:H6)</f>
+        <f t="shared" ref="O6:O12" si="0">AVERAGE(D6:H6)</f>
         <v>501.39059480000003</v>
       </c>
       <c r="P6" s="1">
@@ -8178,18 +8206,18 @@
         <v>25</v>
       </c>
       <c r="O7" s="2">
-        <f>AVERAGE(D7:H7)</f>
+        <f t="shared" si="0"/>
         <v>206.901737</v>
       </c>
       <c r="P7" s="2">
         <v>211.97880499999999</v>
       </c>
       <c r="R7" s="2">
-        <f>$R$6/B7</f>
+        <f t="shared" ref="R7:R12" si="1">$R$6/B7</f>
         <v>262.46704449999999</v>
       </c>
       <c r="S7" s="3">
-        <f>$P$6/P7</f>
+        <f t="shared" ref="S7:S12" si="2">$P$6/P7</f>
         <v>2.4763517701687205</v>
       </c>
       <c r="T7" s="2">
@@ -8223,18 +8251,18 @@
         <v>27</v>
       </c>
       <c r="O8" s="2">
-        <f>AVERAGE(D8:H8)</f>
+        <f t="shared" si="0"/>
         <v>112.09406940000001</v>
       </c>
       <c r="P8" s="2">
         <v>114.851928</v>
       </c>
       <c r="R8" s="2">
-        <f>$R$6/B8</f>
+        <f t="shared" si="1"/>
         <v>131.23352224999999</v>
       </c>
       <c r="S8" s="3">
-        <f>$P$6/P8</f>
+        <f t="shared" si="2"/>
         <v>4.5705291860664277</v>
       </c>
       <c r="T8" s="2">
@@ -8268,18 +8296,18 @@
         <v>29</v>
       </c>
       <c r="O9" s="2">
-        <f>AVERAGE(D9:H9)</f>
+        <f t="shared" si="0"/>
         <v>66.234086000000005</v>
       </c>
       <c r="P9" s="2">
         <v>65.730497</v>
       </c>
       <c r="R9" s="2">
-        <f>$R$6/B9</f>
+        <f t="shared" si="1"/>
         <v>65.616761124999996</v>
       </c>
       <c r="S9" s="3">
-        <f>$P$6/P9</f>
+        <f t="shared" si="2"/>
         <v>7.9861573083800046</v>
       </c>
       <c r="T9" s="2">
@@ -8313,7 +8341,7 @@
         <v>31</v>
       </c>
       <c r="O10" s="2">
-        <f>AVERAGE(D10:H10)</f>
+        <f t="shared" si="0"/>
         <v>54.100023</v>
       </c>
       <c r="P10" s="2">
@@ -8321,11 +8349,11 @@
         <v>51.440548</v>
       </c>
       <c r="R10" s="2">
-        <f>$R$6/B10</f>
+        <f t="shared" si="1"/>
         <v>32.808380562499998</v>
       </c>
       <c r="S10" s="3">
-        <f>$P$6/P10</f>
+        <f t="shared" si="2"/>
         <v>10.204675288451437</v>
       </c>
       <c r="T10" s="1">
@@ -8358,7 +8386,7 @@
         <v>35</v>
       </c>
       <c r="O11" s="2">
-        <f>AVERAGE(D11:H11)</f>
+        <f t="shared" si="0"/>
         <v>57.69905</v>
       </c>
       <c r="P11" s="2">
@@ -8366,11 +8394,11 @@
         <v>55.794818999999997</v>
       </c>
       <c r="R11" s="2">
-        <f>$R$6/B11</f>
+        <f t="shared" si="1"/>
         <v>21.872253708333332</v>
       </c>
       <c r="S11" s="3">
-        <f>$P$6/P11</f>
+        <f t="shared" si="2"/>
         <v>9.4082945049073459</v>
       </c>
     </row>
@@ -8400,7 +8428,7 @@
         <v>33</v>
       </c>
       <c r="O12" s="2">
-        <f>AVERAGE(D12:H12)</f>
+        <f t="shared" si="0"/>
         <v>68.482696399999995</v>
       </c>
       <c r="P12" s="2">
@@ -8408,11 +8436,11 @@
         <v>60.421945000000001</v>
       </c>
       <c r="R12" s="2">
-        <f>$R$6/B12</f>
+        <f t="shared" si="1"/>
         <v>16.404190281249999</v>
       </c>
       <c r="S12" s="3">
-        <f>$P$6/P12</f>
+        <f t="shared" si="2"/>
         <v>8.6878052171276501</v>
       </c>
     </row>
